--- a/scripts/__other__/__params__.xlsx
+++ b/scripts/__other__/__params__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5208868_ad_unsw_edu_au/Documents/Desktop/code/moga_neml/scripts/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5208868_ad_unsw_edu_au/Documents/Desktop/code/moga_neml/scripts/__other__/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C5C307F-8D72-422D-9B63-AEF2A89761BD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="40" windowWidth="14400" windowHeight="7270" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" r:id="rId1"/>
@@ -324,6 +324,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -857,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEDA563-F318-4852-865D-A2318D089824}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -2207,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283AF620-1FFC-4E74-9A03-F7E60FF34CC2}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="A10:C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2977,6 +2981,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/scripts/__other__/__params__.xlsx
+++ b/scripts/__other__/__params__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5208868_ad_unsw_edu_au/Documents/Desktop/code/moga_neml/scripts/__other__/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C5C307F-8D72-422D-9B63-AEF2A89761BD}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BD02684-D826-412C-A1DD-368ADA5C1124}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="40" windowWidth="14400" windowHeight="7270" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="52">
   <si>
     <t>Temperature</t>
   </si>
@@ -95,12 +95,6 @@
     <t>wd_m</t>
   </si>
   <si>
-    <t>wd_b</t>
-  </si>
-  <si>
-    <t>wd_n</t>
-  </si>
-  <si>
     <t>A10,12,14,16</t>
   </si>
   <si>
@@ -183,6 +177,15 @@
   </si>
   <si>
     <t>A14,16,18,20,F7</t>
+  </si>
+  <si>
+    <t>wd_0</t>
+  </si>
+  <si>
+    <t>wd_1</t>
+  </si>
+  <si>
+    <t>basically perfect</t>
   </si>
 </sst>
 </file>
@@ -663,19 +666,19 @@
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -689,7 +692,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1">
         <v>0.19388</v>
@@ -718,7 +721,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="6">
         <v>900</v>
@@ -727,7 +730,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1">
         <v>82.375</v>
@@ -756,38 +759,38 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="6">
         <v>800</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6">
         <v>800</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="6">
         <v>900</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1">
         <v>2692.7</v>
@@ -816,16 +819,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="6">
         <v>900</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1">
         <v>2838.9</v>
@@ -861,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEDA563-F318-4852-865D-A2318D089824}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,7 +906,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6">
         <v>800</v>
@@ -929,7 +932,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <v>800</v>
@@ -955,7 +958,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6">
         <v>800</v>
@@ -981,7 +984,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6">
         <v>800</v>
@@ -1007,7 +1010,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6">
         <v>20</v>
@@ -1033,7 +1036,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6">
         <v>20</v>
@@ -1059,7 +1062,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6">
         <v>20</v>
@@ -1068,7 +1071,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
         <v>100.2765337394666</v>
@@ -1166,7 +1169,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="6">
         <v>900</v>
@@ -1192,7 +1195,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6">
         <v>900</v>
@@ -1218,16 +1221,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="6">
         <v>800</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1">
         <v>0.23834</v>
@@ -1247,16 +1250,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>800</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1">
         <v>9.1246999999999995E-2</v>
@@ -1276,16 +1279,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="6">
         <v>800</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1">
         <v>1.698</v>
@@ -1305,16 +1308,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="6">
         <v>900</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1">
         <v>18.538</v>
@@ -1334,16 +1337,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="6">
         <v>900</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1">
         <v>17.727</v>
@@ -1363,13 +1366,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="6">
         <v>900</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1">
         <v>4.8710000000000004</v>
@@ -1389,13 +1392,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="6">
         <v>900</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" s="1">
         <v>3.4691999999999998</v>
@@ -1480,7 +1483,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>800</v>
@@ -1516,7 +1519,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6">
         <v>800</v>
@@ -1551,7 +1554,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6">
         <v>800</v>
@@ -1587,7 +1590,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6">
         <v>800</v>
@@ -1623,7 +1626,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6">
         <v>800</v>
@@ -1659,7 +1662,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6">
         <v>800</v>
@@ -1695,7 +1698,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6">
         <v>800</v>
@@ -1730,7 +1733,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6">
         <v>900</v>
@@ -1765,7 +1768,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6">
         <v>900</v>
@@ -1800,7 +1803,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6">
         <v>900</v>
@@ -1835,7 +1838,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6">
         <v>900</v>
@@ -1870,7 +1873,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6">
         <v>900</v>
@@ -1905,7 +1908,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="6">
         <v>1000</v>
@@ -1914,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E17" s="4">
         <v>7.7793841989999999</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6">
         <v>1000</v>
@@ -1952,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" s="4">
         <v>8.2411609820000002</v>
@@ -1981,7 +1984,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6">
         <v>750</v>
@@ -2016,7 +2019,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="6">
         <v>750</v>
@@ -2051,7 +2054,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="6">
         <v>850</v>
@@ -2060,7 +2063,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E23" s="4">
         <v>34.758387190000001</v>
@@ -2089,7 +2092,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="6">
         <v>850</v>
@@ -2098,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E24" s="4">
         <v>13.80174656</v>
@@ -2127,7 +2130,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="6">
         <v>900</v>
@@ -2136,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" s="4">
         <v>17.278146039999999</v>
@@ -2165,7 +2168,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="6">
         <v>900</v>
@@ -2174,7 +2177,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" s="4">
         <v>17.290857070000001</v>
@@ -2209,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283AF620-1FFC-4E74-9A03-F7E60FF34CC2}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:K13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2251,18 +2254,18 @@
         <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6">
         <v>800</v>
@@ -2286,18 +2289,18 @@
         <v>68466.005139999994</v>
       </c>
       <c r="J2" s="1">
+        <v>3.3563672009999999</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.6252751810000001</v>
+      </c>
+      <c r="L2" s="1">
         <v>0.33925536000000001</v>
-      </c>
-      <c r="K2" s="1">
-        <v>3.3563672009999999</v>
-      </c>
-      <c r="L2" s="1">
-        <v>6.6252751810000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <v>800</v>
@@ -2321,18 +2324,18 @@
         <v>68201.328139999998</v>
       </c>
       <c r="J3" s="1">
+        <v>3.2870546680000001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.1674235470000003</v>
+      </c>
+      <c r="L3" s="1">
         <v>0.32540135999999997</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3.2870546680000001</v>
-      </c>
-      <c r="L3" s="1">
-        <v>6.1674235470000003</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6">
         <v>800</v>
@@ -2356,18 +2359,18 @@
         <v>86678.171857111447</v>
       </c>
       <c r="J4" s="1">
+        <v>3.147514667109319</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.2507388750083628</v>
+      </c>
+      <c r="L4" s="1">
         <v>0.29732985360354108</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3.147514667109319</v>
-      </c>
-      <c r="L4" s="1">
-        <v>6.2507388750083628</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6">
         <v>800</v>
@@ -2391,18 +2394,18 @@
         <v>144710.32227601431</v>
       </c>
       <c r="J5" s="1">
+        <v>3.2405595001804999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>7.7655399503588036</v>
+      </c>
+      <c r="L5" s="1">
         <v>0.31790032122209072</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3.2405595001804999</v>
-      </c>
-      <c r="L5" s="1">
-        <v>7.7655399503588036</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="6">
         <v>800</v>
@@ -2426,18 +2429,18 @@
         <v>33732.534232073733</v>
       </c>
       <c r="J6" s="1">
+        <v>2.9186987843332188</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4.8104436683165854</v>
+      </c>
+      <c r="L6" s="1">
         <v>0.26117022963942232</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2.9186987843332188</v>
-      </c>
-      <c r="L6" s="1">
-        <v>4.8104436683165854</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6">
         <v>800</v>
@@ -2461,18 +2464,18 @@
         <v>155993.03250930819</v>
       </c>
       <c r="J7" s="1">
+        <v>2.957959794304549</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6.6403344935207569</v>
+      </c>
+      <c r="L7" s="1">
         <v>0.26597162514627548</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2.957959794304549</v>
-      </c>
-      <c r="L7" s="1">
-        <v>6.6403344935207569</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6">
         <v>800</v>
@@ -2496,18 +2499,18 @@
         <v>139851.31880000001</v>
       </c>
       <c r="J8" s="1">
+        <v>2.6292507949999999</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4.9637544829999998</v>
+      </c>
+      <c r="L8" s="1">
         <v>0.21153991999999999</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2.6292507949999999</v>
-      </c>
-      <c r="L8" s="1">
-        <v>4.9637544829999998</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6">
         <v>800</v>
@@ -2531,18 +2534,18 @@
         <v>279238.82616198779</v>
       </c>
       <c r="J9" s="1">
+        <v>3.3777701353994449</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5.9187008540958459</v>
+      </c>
+      <c r="L9" s="1">
         <v>0.34348754571346041</v>
-      </c>
-      <c r="K9" s="1">
-        <v>3.3777701353994449</v>
-      </c>
-      <c r="L9" s="1">
-        <v>5.9187008540958459</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6">
         <v>800</v>
@@ -2566,18 +2569,18 @@
         <v>258734.9713</v>
       </c>
       <c r="J10" s="1">
+        <v>3.273351098</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6.5715395680000004</v>
+      </c>
+      <c r="L10" s="1">
         <v>0.324898725</v>
-      </c>
-      <c r="K10" s="1">
-        <v>3.273351098</v>
-      </c>
-      <c r="L10" s="1">
-        <v>6.5715395680000004</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="6">
         <v>800</v>
@@ -2601,18 +2604,18 @@
         <v>140384.299</v>
       </c>
       <c r="J11" s="1">
+        <v>2.6993303129999999</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4.8194761530000001</v>
+      </c>
+      <c r="L11" s="1">
         <v>0.223346349</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2.6993303129999999</v>
-      </c>
-      <c r="L11" s="1">
-        <v>4.8194761530000001</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6">
         <v>900</v>
@@ -2636,18 +2639,18 @@
         <v>389004.45740000001</v>
       </c>
       <c r="J13" s="1">
+        <v>2.5566070359999999</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4.4744182300000004</v>
+      </c>
+      <c r="L13" s="1">
         <v>0.28193708099999998</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2.5566070359999999</v>
-      </c>
-      <c r="L13" s="1">
-        <v>4.4744182300000004</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6">
         <v>900</v>
@@ -2671,311 +2674,349 @@
         <v>384219.10029999999</v>
       </c>
       <c r="J14" s="1">
+        <v>2.737334997</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4.2939194560000002</v>
+      </c>
+      <c r="L14" s="1">
         <v>0.30987209999999998</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2.737334997</v>
-      </c>
-      <c r="L14" s="1">
-        <v>4.2939194560000002</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6">
+        <v>900</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.8710000000000004</v>
+      </c>
+      <c r="F16" s="1">
+        <v>11.518000000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7.0281000000000002</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.2420999999999998</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1138.3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>6.7431000000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.99714000000000003</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3.8264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6">
         <v>1000</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1">
         <v>6.8587324680000004</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F18" s="1">
         <v>7.9885640310000001</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G18" s="1">
         <v>4.5258362070000002</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H18" s="1">
         <v>1.720677732</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I18" s="1">
         <v>140224.75889999999</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J18" s="1">
+        <v>4.2015365029999998</v>
+      </c>
+      <c r="K18" s="1">
+        <v>8.3272627470000007</v>
+      </c>
+      <c r="L18" s="1">
         <v>0.57286533699999997</v>
-      </c>
-      <c r="K16" s="1">
-        <v>4.2015365029999998</v>
-      </c>
-      <c r="L16" s="1">
-        <v>8.3272627470000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1">
-        <v>8.2121177169999999</v>
-      </c>
-      <c r="F17" s="1">
-        <v>5.4850793629999997</v>
-      </c>
-      <c r="G17" s="1">
-        <v>4.4373878710000003</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.695490924</v>
-      </c>
-      <c r="I17" s="1">
-        <v>129528.1067</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.56935574</v>
-      </c>
-      <c r="K17" s="1">
-        <v>4.1790239979999999</v>
-      </c>
-      <c r="L17" s="1">
-        <v>9.2292174469999999</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1">
+        <v>8.2121177169999999</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5.4850793629999997</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4.4373878710000003</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.695490924</v>
+      </c>
+      <c r="I19" s="1">
+        <v>129528.1067</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4.1790239979999999</v>
+      </c>
+      <c r="K19" s="1">
+        <v>9.2292174469999999</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.56935574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6">
         <v>750</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="C21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1">
         <v>37.590335240000002</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F21" s="1">
         <v>7.6555987119999998</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G21" s="1">
         <v>83.338543450000003</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H21" s="1">
         <v>2.0368675779999998</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I21" s="1">
         <v>406412.85399999999</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J21" s="1">
+        <v>3.690063511</v>
+      </c>
+      <c r="K21" s="1">
+        <v>4.9008418870000003</v>
+      </c>
+      <c r="L21" s="1">
         <v>0.39268762899999998</v>
-      </c>
-      <c r="K19" s="1">
-        <v>3.690063511</v>
-      </c>
-      <c r="L19" s="1">
-        <v>4.9008418870000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="6">
-        <v>750</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="1">
-        <v>27.45715534</v>
-      </c>
-      <c r="F20" s="1">
-        <v>24.012004319999999</v>
-      </c>
-      <c r="G20" s="1">
-        <v>97.254247100000001</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2.0399495719999998</v>
-      </c>
-      <c r="I20" s="1">
-        <v>444259.96159999998</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.36890356200000002</v>
-      </c>
-      <c r="K20" s="1">
-        <v>3.5376843259999999</v>
-      </c>
-      <c r="L20" s="1">
-        <v>2.5862098699999998</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" s="6">
+        <v>750</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1">
+        <v>27.45715534</v>
+      </c>
+      <c r="F22" s="1">
+        <v>24.012004319999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>97.254247100000001</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.0399495719999998</v>
+      </c>
+      <c r="I22" s="1">
+        <v>444259.96159999998</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3.5376843259999999</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2.5862098699999998</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.36890356200000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6">
         <v>850</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
         <v>1.6883201489999999</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F24" s="1">
         <v>39.292514199999999</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G24" s="1">
         <v>20.00321959</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H24" s="1">
         <v>1.4946110239999999</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I24" s="1">
         <v>412437.70079999999</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J24" s="1">
+        <v>2.0075020659999998</v>
+      </c>
+      <c r="K24" s="1">
+        <v>4.5178427159999996</v>
+      </c>
+      <c r="L24" s="1">
         <v>0.14341503</v>
-      </c>
-      <c r="K22" s="1">
-        <v>2.0075020659999998</v>
-      </c>
-      <c r="L22" s="1">
-        <v>4.5178427159999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="6">
-        <v>850</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1.615878685</v>
-      </c>
-      <c r="F23" s="1">
-        <v>37.857990409999999</v>
-      </c>
-      <c r="G23" s="1">
-        <v>28.10994324</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1.496902951</v>
-      </c>
-      <c r="I23" s="1">
-        <v>413757.70240000001</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.164657212</v>
-      </c>
-      <c r="K23" s="1">
-        <v>2.1137581120000002</v>
-      </c>
-      <c r="L23" s="1">
-        <v>8.4147439609999992</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B25" s="6">
+        <v>850</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.615878685</v>
+      </c>
+      <c r="F25" s="1">
+        <v>37.857990409999999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>28.10994324</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.496902951</v>
+      </c>
+      <c r="I25" s="1">
+        <v>413757.70240000001</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2.1137581120000002</v>
+      </c>
+      <c r="K25" s="1">
+        <v>8.4147439609999992</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.164657212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="6">
         <v>900</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="4">
         <v>1.292733124</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F27" s="1">
         <v>21.874989469999999</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G27" s="1">
         <v>63.50133847</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H27" s="1">
         <v>1.51295091</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I27" s="1">
         <v>398851.45030000003</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J27" s="1">
+        <v>2.7827077739999999</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3.5931942669999999</v>
+      </c>
+      <c r="L27" s="1">
         <v>0.29578019799999999</v>
       </c>
-      <c r="K25" s="1">
-        <v>2.7827077739999999</v>
-      </c>
-      <c r="L25" s="1">
-        <v>3.5931942669999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="6">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6">
         <v>900</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="C28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="4">
         <v>2.46505449</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F28" s="1">
         <v>20.898547220000001</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G28" s="1">
         <v>56.635800690000003</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H28" s="1">
         <v>1.5189444249999999</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I28" s="1">
         <v>370119.14549999998</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J28" s="1">
+        <v>2.6564532660000002</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3.490428997</v>
+      </c>
+      <c r="L28" s="1">
         <v>0.28285682499999998</v>
-      </c>
-      <c r="K26" s="1">
-        <v>2.6564532660000002</v>
-      </c>
-      <c r="L26" s="1">
-        <v>3.490428997</v>
       </c>
     </row>
   </sheetData>
@@ -3016,16 +3057,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
@@ -3033,7 +3074,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6">
         <v>20</v>

--- a/scripts/__other__/__params__.xlsx
+++ b/scripts/__other__/__params__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janzen\Desktop\code\moga_neml\scripts\__other__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D52E2E-C802-4994-8F20-95FD09534868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE058509-C80F-4A10-A7C5-C1D9DEB5888D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="225" windowWidth="28515" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evp" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,15 +126,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -419,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,25 +494,25 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1">
         <v>18.946000000000002</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <v>109.11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <v>0.88795999999999997</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>4.0578000000000003</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="1">
         <v>2454.9</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="1">
         <v>3.0287000000000001E-3</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="1">
         <v>9.1731000000000003E-6</v>
       </c>
     </row>
@@ -564,25 +555,25 @@
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="1">
         <v>35.813000000000002</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="1">
         <v>66.293999999999997</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="1">
         <v>1.5430999999999999</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="1">
         <v>2.4946000000000002</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="1">
         <v>20880</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="1">
         <v>3.3224000000000001E-3</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="1">
         <v>1.1038E-5</v>
       </c>
     </row>
@@ -625,25 +616,25 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>14.122999999999999</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>22.803999999999998</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>3.7970999999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>2.9723999999999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>3710.4</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1">
         <v>1.23E-2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <v>1.5129999999999999E-4</v>
       </c>
     </row>
